--- a/config_3.30/game_module_config_cjj.xlsx
+++ b/config_3.30/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4165,26 +4165,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_007_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月29日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_009_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_010</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sgxxl_tower_climbing</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4210,6 +4194,22 @@
   </si>
   <si>
     <t>BY3DPHBManager</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_008_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_012_hedeng</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_010_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_011</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4878,10 +4878,10 @@
   <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A328" sqref="A328"/>
+      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12959,7 +12959,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="C312" s="50" t="s">
         <v>981</v>
@@ -12974,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12982,7 +12982,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C313" s="50" t="s">
         <v>982</v>
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13005,7 +13005,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="C314" s="50" t="s">
         <v>983</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13051,7 +13051,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="C316" s="50" t="s">
         <v>986</v>
@@ -13306,13 +13306,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C326" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -13324,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13332,13 +13332,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C327" s="36" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D327" s="35" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E327" s="30">
         <v>1</v>
